--- a/medicine/Enfance/Prix_Pitchou/Prix_Pitchou.xlsx
+++ b/medicine/Enfance/Prix_Pitchou/Prix_Pitchou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Pitchou est une récompense en littérature jeunesse désignant le meilleur album pour touts-petits de l'année. Il a été créé en 1995 par la Fête du livre de jeunesse[1] de Saint-Paul-Trois-Châteaux[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Pitchou est une récompense en littérature jeunesse désignant le meilleur album pour touts-petits de l'année. Il a été créé en 1995 par la Fête du livre de jeunesse de Saint-Paul-Trois-Châteaux,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Déroulé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un comité de sélection, composé de bibliothécaires, enseignants, assistantes maternelles et artistes, se réunit 5 ou 6 fois dans l'année. Ils lisent la quasi intégralité de la production éditoriale consacrée aux tout-petits sur une année. Ils sélectionnent une dizaine de titres lauréats, confiés à l'appréciation du jury, qui choisit l'album qui obtient le prix[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un comité de sélection, composé de bibliothécaires, enseignants, assistantes maternelles et artistes, se réunit 5 ou 6 fois dans l'année. Ils lisent la quasi intégralité de la production éditoriale consacrée aux tout-petits sur une année. Ils sélectionnent une dizaine de titres lauréats, confiés à l'appréciation du jury, qui choisit l'album qui obtient le prix.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Prix décernés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2020 : Quatre pattes de Gaëtan Doremus  (Ed. du Rouergue) [5]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2020 : Quatre pattes de Gaëtan Doremus  (Ed. du Rouergue) 
 2019 : Moi, j’ai peur du loup d’Emilie Vast (Editions MeMo)
 2018 : Promenons-nous, dans les bois de Pauline Kalioujny (Editions Thierry Magnier) –
-2018 : mention spéciale du Jury : La graine de carotte, de Ruth Krauss, éd. MeMo [6]
+2018 : mention spéciale du Jury : La graine de carotte, de Ruth Krauss, éd. MeMo 
 2017 : Extra-va-gant de Betty Bone (Editions Courtes et Longues)
 2016 : Pomme Pomme Pomme de Corinne Dreyfuss (Editions Thierry Magnier)
 2015 : Mon monstre de Marie Sellier et Jean-Luc Buquet (éditions courtes et longues)
